--- a/Data_science_outputs/1000pop/Monthly_consumption/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs/1000pop/Monthly_consumption/Montlhy_consumption_4.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29151.03452275</v>
+        <v>22787.503246</v>
       </c>
       <c r="C2" t="n">
         <v>3836.424310316668</v>
       </c>
       <c r="D2" t="n">
-        <v>6617.9432895</v>
+        <v>1494.907896416667</v>
       </c>
       <c r="E2" t="n">
-        <v>5571.9302743</v>
+        <v>4417.314503233333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27183.90391511667</v>
+        <v>21200.1327983</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6152.678463666666</v>
+        <v>1384.462953566667</v>
       </c>
       <c r="E3" t="n">
-        <v>4985.871614983334</v>
+        <v>4056.7215283</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29235.4534065</v>
+        <v>22887.87892265001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6591.25642235</v>
+        <v>1476.7636146</v>
       </c>
       <c r="E4" t="n">
-        <v>5544.284163733333</v>
+        <v>4323.93000225</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28071.04909830001</v>
+        <v>21931.65048931667</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6378.030640433333</v>
+        <v>1458.52221285</v>
       </c>
       <c r="E5" t="n">
-        <v>5458.349639616667</v>
+        <v>4193.957928666667</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29073.63530538334</v>
+        <v>22737.3828107</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6609.911210766667</v>
+        <v>1467.364552866667</v>
       </c>
       <c r="E6" t="n">
-        <v>5620.563558416667</v>
+        <v>4417.14093795</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28342.66966868334</v>
+        <v>21984.47007251667</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6390.39420095</v>
+        <v>1459.942688383333</v>
       </c>
       <c r="E7" t="n">
-        <v>5179.83957155</v>
+        <v>4230.3473019</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29389.73638775001</v>
+        <v>22742.92483245</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6578.590323966667</v>
+        <v>1489.62160025</v>
       </c>
       <c r="E8" t="n">
-        <v>5267.508171883333</v>
+        <v>4276.627464116666</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29389.48107700001</v>
+        <v>22881.75234935</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6619.747718883334</v>
+        <v>1497.906630416667</v>
       </c>
       <c r="E9" t="n">
-        <v>5679.350237166667</v>
+        <v>4245.331106783334</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28196.74366913334</v>
+        <v>22136.64730365001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6397.364472883334</v>
+        <v>1434.95356905</v>
       </c>
       <c r="E10" t="n">
-        <v>5583.688065116667</v>
+        <v>3920.31857385</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29365.78167428334</v>
+        <v>22975.86661706667</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6612.972530533334</v>
+        <v>1506.887080933333</v>
       </c>
       <c r="E11" t="n">
-        <v>5485.210666000001</v>
+        <v>4234.032952883334</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28194.82828321667</v>
+        <v>22001.24391711667</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>6372.067577366667</v>
+        <v>1427.3509301</v>
       </c>
       <c r="E12" t="n">
-        <v>5355.930846050001</v>
+        <v>4024.42531745</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28277.09635458334</v>
+        <v>22042.7830728</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6388.80265765</v>
+        <v>1431.153082666666</v>
       </c>
       <c r="E13" t="n">
-        <v>5394.099998733333</v>
+        <v>4176.7295289</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
